--- a/UI concept/sketch.xlsx
+++ b/UI concept/sketch.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvark\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\mRemoteNG\v1.8-dev\UI concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B672A04-C917-4FFB-B09E-BA853B5B8D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEC71E-6718-41F0-B0AF-D0BF165C52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="2070" windowWidth="17115" windowHeight="12735" xr2:uid="{2F0459C8-CB0C-4263-BF6D-8FEB3A55056C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Screen-min" sheetId="2" r:id="rId1"/>
+    <sheet name="Screen-slid off" sheetId="3" r:id="rId2"/>
+    <sheet name="Screen-full view" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,103 +39,32 @@
     <author>Dimitrij Gorodeckij</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3DDA22F4-5226-490A-A967-67BB95CCE5FD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-icon - circle, square, triangle etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{94D3F6BB-52BF-4BA8-8F01-BFD5B45CFC54}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Folder name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{41399913-7E2B-4F77-8733-C0345348D1A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Panel name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{77A3E900-F71A-4732-A6CE-C48D6D6742B2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Inheritance from parent true or false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{FCDD6824-55AD-4392-A081-C9DE822DA070}">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{C9D91834-0DC1-42D3-9064-68519C12EE72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+panel icon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{5768698D-97F7-48F5-A6C2-9B590963820A}">
       <text>
         <r>
           <rPr>
@@ -158,55 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{1AF64C93-8AEA-4026-9142-E19D80CAE76F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Host name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{035AFAD3-B80B-4F08-948C-050886EDECCF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operating system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{A0BA055B-2FA9-4C83-9D02-CA57A7F81D2C}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{509FDEB2-A6B4-4370-8B5E-D43FB2A53D8C}">
       <text>
         <r>
           <rPr>
@@ -230,103 +113,81 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{A189F681-1ACF-4DBD-BE4A-2B1C77EA960F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Description</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{F591F820-1A44-4092-BABE-8EBF82979BF9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tags </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{1B97C750-79DA-45EC-8C8B-05C2C918A353}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Edit settings</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{4557F866-8279-4994-B8AF-BB5268D99804}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Inheritance enabled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{BF890828-BDA1-477F-BC3A-73F32546FCBF}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{4C93AB22-AB78-4371-AA75-8912C4F12209}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+favorites on top</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{EE1D8E25-C602-4350-B902-610A08B32C25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+connect
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{EE38FEBE-517F-4992-9FFF-53AF08DD174D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+panel icon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{6224B5FF-2EF3-4845-B24B-19B495878C5E}">
       <text>
         <r>
           <rPr>
@@ -351,55 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{96008807-0E44-4EFB-921F-74EAE6A0B8A1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Host name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{9818D262-5C9C-4D70-839C-ABBC1E7850B7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operating system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{786537A8-01B1-44B5-BB27-067AFBBEBE99}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{F5D5EEE2-2B18-44F5-8726-0903872C772B}">
       <text>
         <r>
           <rPr>
@@ -423,79 +236,81 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{C2147099-123C-4381-BD76-9F33322C2E29}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Description</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{E815163D-CCA1-4788-9BC2-BF79826075B7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tags </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{0CF33C09-A44B-444F-ABE9-2264711C6DD6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Edit settings</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{5896F448-B850-4B54-B6BB-605FE34A00E6}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{25FD7C87-1F68-4364-BF0C-A685420E2FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+favorites on top</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{2D760EA0-67A1-479D-9A74-EB591169EBFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+connect
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{B554A376-73D5-4F45-BDDF-8A86B0939FE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+panel icon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{1772002D-4BD2-42A3-823A-FA4E9D48CD7E}">
       <text>
         <r>
           <rPr>
@@ -520,55 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{3B89B6DE-E174-4E80-B527-FE3FB970028A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Host name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{E03ACA1A-CB1D-46A2-8F90-BE7A490E7196}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operating system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{7B0F583B-05FE-4CF0-99EC-8140BC86571C}">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{A8785986-1B24-4D37-8043-DADE208654E8}">
       <text>
         <r>
           <rPr>
@@ -592,79 +359,66 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{28EFDDFB-0479-49D2-8B84-25633CA1FF7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Description</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{43E21AFF-42CB-4BE2-A118-53E5BF6F3D7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tags </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{6627FEA6-4B15-4DB6-B7DA-EA50483AAB4F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dimitrij Gorodeckij:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Edit settings</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{ECDFAF70-2829-43B3-8A4E-446A00ED2D34}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{EA2FF0AE-F7C0-42AC-BAD5-E34ACD014A2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+favorites on top</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{863AF2B0-1985-446A-81EF-329BA4A40226}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+connect
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dimitrij Gorodeckij</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{9C976EBC-35C5-490A-A138-9565A455FBF9}">
       <text>
         <r>
           <rPr>
@@ -688,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{1BDAE38B-3A82-43DA-B68E-EFA5B58D1253}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{97F930B9-427F-46E6-8359-238C2C0CD65E}">
       <text>
         <r>
           <rPr>
@@ -712,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{A9581EC3-528A-4A87-9222-9DFB343EC7FE}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{4A95447A-37D1-4A8A-9DE1-C039A1EAC43C}">
       <text>
         <r>
           <rPr>
@@ -736,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{D7AD0ABD-C494-4B0F-9088-5412BA204182}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{64F98668-F4AD-414A-B298-DE27E9B783AD}">
       <text>
         <r>
           <rPr>
@@ -760,7 +514,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{224015A9-F217-4ECA-9CCC-90215B685B68}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{B7F73633-88D5-4869-AA71-091668B979CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+favorites on top</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{F8919651-C17A-4CC2-B316-DB7DB34DD9E6}">
       <text>
         <r>
           <rPr>
@@ -785,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{1C85834E-3412-43BB-8E8D-C51BB67A9A01}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{786C8E1E-3B37-47DC-A0AA-008D2A43D09A}">
       <text>
         <r>
           <rPr>
@@ -809,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{8BBD6EFD-2068-4C89-884D-D804EFFF2FD4}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{7AC1B441-FF8F-45F0-BA6B-397A10C20489}">
       <text>
         <r>
           <rPr>
@@ -833,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{04404DAC-389C-4B7C-8E23-B9D295443BE2}">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{6DE501DC-AC09-46C2-9626-16FAB8A45105}">
       <text>
         <r>
           <rPr>
@@ -857,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{FA20978B-29AD-4206-915A-34563DFCE9A1}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{0C98278A-9F8C-452A-BB63-5D587C0D5D33}">
       <text>
         <r>
           <rPr>
@@ -881,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{D0281FA7-EAE2-4575-B8CB-B1BC10020BE5}">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{57DEC10A-21AF-4A54-B6A9-D6FE6EE5FF44}">
       <text>
         <r>
           <rPr>
@@ -905,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{06632838-DFE2-40ED-B1FD-912680F5DC42}">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{4EEE9A31-3AEF-430E-A6AC-B906F310F9AF}">
       <text>
         <r>
           <rPr>
@@ -929,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{3C942C80-1CBD-44A5-82CE-75DB88368943}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{FC21BC25-FFB1-48C3-94C4-1C302E6336E2}">
       <text>
         <r>
           <rPr>
@@ -953,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{94832B02-B3A9-4A69-94C5-29025CDEE277}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{3BD6F257-9EDE-471E-B4AD-05AFE193EB52}">
       <text>
         <r>
           <rPr>
@@ -978,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{3E1AC6B5-D16B-4AF1-8300-5A916833C24B}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{53AAC5DC-89FF-4D2D-8E4D-6A2C76AD4E7D}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{AF8FDBA5-A6DD-4E0E-BFF8-31556E1BCD96}">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{0BA9BFD2-3FBD-48CE-B700-A3FB49465098}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{BDEA6D30-FA75-4AF0-B3E8-64CEF1A28E2A}">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{B13955E5-D03C-4E46-A41E-04F22395EC33}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{53304999-B1F7-41FB-94B4-450783CACA69}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{7E4593F0-429B-4007-AED0-0D00D58A258C}">
       <text>
         <r>
           <rPr>
@@ -1074,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{2BC78987-70DC-4170-AF31-3F0C93525826}">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{E71983D4-4A1D-4780-BB7E-ECC315EC0DB0}">
       <text>
         <r>
           <rPr>
@@ -1098,7 +876,634 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{51BF0504-177F-4B09-B5AB-A8C3B83C409E}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{425EC7DD-5BA7-4C77-9F0A-85C388001500}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Edit settings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{A6F8F9C9-0EE8-470F-B6CD-D3E7319B08D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Icon
+Font, or picture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{67707D94-8913-416E-BD9F-AFCBFFAF095E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Host name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{15577BA6-1BE3-4402-9F4C-B1F81C56409F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Operating system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{5E3BB57E-2B88-4C98-B676-ADA58E96C77D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Connection status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{77338A7B-5B96-489C-B977-99397931A07A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Description</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{3DD98C7F-AF06-4A63-BC9D-DB02CC9F5E43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tags </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{5CFB050A-4A13-4DDA-87C8-F0B776705122}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Edit settings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{AF53ECCF-87F1-4D42-B62D-5184D6C2E83C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+icon - circle, square, triangle etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{24498220-50B4-4C5E-8785-7953B6DC9B93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Folder name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{28CB241A-8A76-49BC-A07F-CFD6E3AC4F57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Panel name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{E042E73A-3AEE-45B6-A37C-0D6E8B2B3728}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inheritance from parent true or false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{5D0488EF-5F98-4B47-8F6B-AED10A58AE07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Icon
+Font, or picture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{18860B8F-6765-4FA6-BE0C-59D8EE6ED30B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Host name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{5FACE9CD-40CD-461C-A885-61C176ECE031}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Operating system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{FB3060E6-AF58-46CD-92AD-3BA7DC6CCFC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Connection status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{349EB159-4DE6-41EA-B9B4-ED954F620021}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Description</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{FDBDA4C8-4E85-49BD-9547-BC7B44273891}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tags </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{E620B25E-B247-4885-AF89-2CE56A672114}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Edit settings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{6BE0AB8B-D6C1-43AF-BAE2-12096EEB7015}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inheritance enabled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{4721D4E7-8F27-4DDA-AD58-F51EC9AC61D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Icon
+Font, or picture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{B833ADC2-8AAC-47D0-AFA2-CD15A2672F5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Host name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{0F29461A-C5FD-4F9D-8328-5AA63AE6B5C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Operating system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{C560CBF9-BED5-4565-937D-AA3089792002}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Connection status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{9CCFA269-4165-4F24-A301-C5AFA642F6ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Description</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{12FD637F-B68C-45AA-88F6-245DA3FF6940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dimitrij Gorodeckij:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tags </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{9F8DD8C1-FA60-45EE-84B7-8BB69E08BD85}">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>⃝</t>
   </si>
@@ -1198,14 +1603,50 @@
     <t>MyHostName4</t>
   </si>
   <si>
-    <t>Panel attributes: Inheritance prameters, location, type</t>
+    <t>START</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>&lt;= icon</t>
+  </si>
+  <si>
+    <t>&lt;= to full view</t>
+  </si>
+  <si>
+    <t>^ scroll up</t>
+  </si>
+  <si>
+    <t>\/ scroll down</t>
+  </si>
+  <si>
+    <t>&lt;= pined</t>
+  </si>
+  <si>
+    <t>\/</t>
+  </si>
+  <si>
+    <t>/\</t>
+  </si>
+  <si>
+    <t>&lt;-- place for add filtering</t>
+  </si>
+  <si>
+    <t>&lt;-- search</t>
+  </si>
+  <si>
+    <t>&lt;-- pin it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,8 +1771,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,8 +1904,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1431,11 +1949,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,21 +2042,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1474,22 +2060,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1514,6 +2088,117 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,6 +2214,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D80667-72C2-4B42-8856-F5E3CD0F2A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="19250025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37670F69-22CD-4B40-882E-A5D80385D0BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="266700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5858BA8-6ADA-413E-9290-6BBC7D94C4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="342900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1827,409 +2677,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6A2F45-7B3B-4660-85EE-369CFABF4339}">
-  <dimension ref="B1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564DE299-AE9F-4E3D-8F44-28B10160A151}">
+  <dimension ref="C91:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="91" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C92" s="38"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="34"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="39"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="36"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="39"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="36"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C95" s="39"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="36"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C96" s="39"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="36"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C97" s="39"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="36"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="39"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="36"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C99" s="39"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="36"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C100" s="39"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="36"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C101" s="39"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="36"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C102" s="39"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="36"/>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C103" s="39"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="36"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C104" s="39"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="36"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C105" s="39"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="36"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C106" s="39"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="35"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="36"/>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C107" s="39"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="35"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="36"/>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C108" s="39"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="36"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C109" s="39"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="35"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="36"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C110" s="39"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="35"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="36"/>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C111" s="39"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="36"/>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C112" s="39"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="35"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="36"/>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C113" s="39"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="35"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="36"/>
+    </row>
+    <row r="114" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="40"/>
+      <c r="D114" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="42">
+        <v>44580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE57E83-9405-4058-B6EF-FCA6A5BFF6FD}">
+  <dimension ref="C1:T28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="39"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="39"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="39"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="64"/>
+      <c r="D8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="48"/>
+      <c r="D11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="49"/>
+      <c r="D12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="64"/>
+      <c r="D16" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="3:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="39"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="39"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="39"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="40"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="42">
+        <v>44580</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1912CB-41C5-4512-B466-22DDB705825A}">
+  <dimension ref="C1:U30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="39"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="39"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="39"/>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8">
+      <c r="J5" s="31">
         <v>1</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+    </row>
+    <row r="6" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="52"/>
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="53"/>
+      <c r="D7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="54"/>
+      <c r="D8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="H8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="52"/>
+      <c r="D9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="39"/>
+      <c r="D11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
+      <c r="D12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16">
+      <c r="E12" s="30"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="24">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="K12" s="30"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="13" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="39"/>
+      <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="K13" s="30"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+    </row>
+    <row r="14" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="39"/>
+      <c r="D14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+    </row>
+    <row r="15" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="39"/>
+      <c r="D15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36"/>
+    </row>
+    <row r="16" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="39"/>
+      <c r="D16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="16">
+      <c r="E16" s="22"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="24">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="J16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="2" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+    </row>
+    <row r="17" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="39"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+    </row>
+    <row r="18" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="39"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+    </row>
+    <row r="19" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
+      <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="E20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="21">
+      <c r="J20" s="27">
         <v>1</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+    </row>
+    <row r="21" spans="3:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+      <c r="D21" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
+      <c r="D22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
+    </row>
+    <row r="23" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="39"/>
+      <c r="D23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="J23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
+    </row>
+    <row r="24" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
+      <c r="D24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="K24" s="22"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="39"/>
+      <c r="D25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+      <c r="D26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+    </row>
+    <row r="27" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
+      <c r="D27" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="16">
+      <c r="E27" s="23"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="24">
         <v>7</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="I27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="2" t="s">
+      <c r="K27" s="23"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="36"/>
+    </row>
+    <row r="28" spans="3:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="40"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="J28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="42">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="19"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>